--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.43514640292292</v>
+        <v>102.3352497893731</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5819393891077</v>
+        <v>140.0196034743495</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.60078587551146</v>
+        <v>126.656329037543</v>
       </c>
       <c r="AD2" t="n">
-        <v>76435.14640292292</v>
+        <v>102335.249789373</v>
       </c>
       <c r="AE2" t="n">
-        <v>104581.9393891077</v>
+        <v>140019.6034743495</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.234403283418729e-06</v>
+        <v>7.546252943374357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.804398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>94600.78587551146</v>
+        <v>126656.329037543</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.70758938699186</v>
+        <v>99.43710057284977</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8499755485897</v>
+        <v>136.0542278589846</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.22499542608716</v>
+        <v>123.0694033054676</v>
       </c>
       <c r="AD3" t="n">
-        <v>73707.58938699185</v>
+        <v>99437.10057284977</v>
       </c>
       <c r="AE3" t="n">
-        <v>100849.9755485897</v>
+        <v>136054.2278589846</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530501988237878e-06</v>
+        <v>7.973127909208373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>91224.99542608716</v>
+        <v>123069.4033054676</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.70735451012531</v>
+        <v>96.95962517513405</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.11316594592743</v>
+        <v>132.664436721331</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.74938309076573</v>
+        <v>120.0031290763889</v>
       </c>
       <c r="AD2" t="n">
-        <v>71707.35451012531</v>
+        <v>96959.62517513405</v>
       </c>
       <c r="AE2" t="n">
-        <v>98113.16594592744</v>
+        <v>132664.436721331</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.608058490984626e-06</v>
+        <v>8.209986661513461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.607638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>88749.38309076574</v>
+        <v>120003.1290763889</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.54059602118394</v>
+        <v>99.9278030784748</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.7262202089211</v>
+        <v>136.7256286754471</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.7312967363814</v>
+        <v>123.6767265703241</v>
       </c>
       <c r="AD2" t="n">
-        <v>76540.59602118394</v>
+        <v>99927.8030784748</v>
       </c>
       <c r="AE2" t="n">
-        <v>104726.2202089211</v>
+        <v>136725.6286754471</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.379639750273022e-06</v>
+        <v>8.3229667182888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.52199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>94731.2967363814</v>
+        <v>123676.7265703241</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.9484788213727</v>
+        <v>100.8636591592074</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.3383505155727</v>
+        <v>138.0061082521611</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.33483074709613</v>
+        <v>124.8349989734014</v>
       </c>
       <c r="AD2" t="n">
-        <v>68948.4788213727</v>
+        <v>100863.6591592074</v>
       </c>
       <c r="AE2" t="n">
-        <v>94338.3505155727</v>
+        <v>138006.1082521611</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.621235426210117e-06</v>
+        <v>8.495339194809394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>85334.83074709613</v>
+        <v>124834.9989734014</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.33289058510152</v>
+        <v>115.3975449330735</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7562255199275</v>
+        <v>157.8920119577423</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6131752247276</v>
+        <v>142.8230199393693</v>
       </c>
       <c r="AD2" t="n">
-        <v>85332.89058510153</v>
+        <v>115397.5449330735</v>
       </c>
       <c r="AE2" t="n">
-        <v>116756.2255199275</v>
+        <v>157892.0119577423</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.967463967141861e-06</v>
+        <v>7.851017142526978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>105613.1752247276</v>
+        <v>142823.0199393693</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.13400882719277</v>
+        <v>97.5565567845134</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.69693320519889</v>
+        <v>133.4811848840474</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.277436422135</v>
+        <v>120.7419279407691</v>
       </c>
       <c r="AD2" t="n">
-        <v>72134.00882719277</v>
+        <v>97556.55678451341</v>
       </c>
       <c r="AE2" t="n">
-        <v>98696.93320519889</v>
+        <v>133481.1848840474</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.599570395077093e-06</v>
+        <v>8.163536902760743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>89277.436422135</v>
+        <v>120741.9279407692</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.24603016407319</v>
+        <v>97.66857812139384</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.8502057403512</v>
+        <v>133.6344574191997</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.41608084165176</v>
+        <v>120.8805723602859</v>
       </c>
       <c r="AD3" t="n">
-        <v>72246.03016407319</v>
+        <v>97668.57812139383</v>
       </c>
       <c r="AE3" t="n">
-        <v>98850.2057403512</v>
+        <v>133634.4574191997</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.598116674433377e-06</v>
+        <v>8.161417543366366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>89416.08084165177</v>
+        <v>120880.5723602859</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.49253935248777</v>
+        <v>124.148735930642</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.2888610586431</v>
+        <v>169.8657775559084</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.9497136172966</v>
+        <v>153.6540261541358</v>
       </c>
       <c r="AD2" t="n">
-        <v>94492.53935248777</v>
+        <v>124148.735930642</v>
       </c>
       <c r="AE2" t="n">
-        <v>129288.8610586431</v>
+        <v>169865.7775559084</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.616328444389614e-06</v>
+        <v>7.396442532744504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.078703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>116949.7136172966</v>
+        <v>153654.0261541358</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.13197714824966</v>
+        <v>94.83161561416804</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.95766513866617</v>
+        <v>129.7528001588627</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.79960025528442</v>
+        <v>117.3693750209341</v>
       </c>
       <c r="AD2" t="n">
-        <v>70131.97714824966</v>
+        <v>94831.61561416804</v>
       </c>
       <c r="AE2" t="n">
-        <v>95957.66513866617</v>
+        <v>129752.8001588627</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667205022268639e-06</v>
+        <v>8.414910824053569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.717592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>86799.60025528441</v>
+        <v>117369.3750209341</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.24965642808782</v>
+        <v>96.32517479302757</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.48692323786977</v>
+        <v>131.7963537185579</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.18290810782774</v>
+        <v>119.217894697038</v>
       </c>
       <c r="AD2" t="n">
-        <v>71249.65642808782</v>
+        <v>96325.17479302757</v>
       </c>
       <c r="AE2" t="n">
-        <v>97486.92323786978</v>
+        <v>131796.3537185579</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.624085958431801e-06</v>
+        <v>8.269894899624468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>88182.90810782774</v>
+        <v>119217.894697038</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.30593034688418</v>
+        <v>100.0519159718714</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6686520468541</v>
+        <v>136.8954454116666</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.96553858837717</v>
+        <v>123.8303362355782</v>
       </c>
       <c r="AD2" t="n">
-        <v>74305.93034688418</v>
+        <v>100051.9159718714</v>
       </c>
       <c r="AE2" t="n">
-        <v>101668.6520468541</v>
+        <v>136895.4454116666</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.416745347680607e-06</v>
+        <v>7.836798244632247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.653935185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>91965.53858837717</v>
+        <v>123830.3362355782</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.2760312599585</v>
+        <v>99.02201688494569</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2594986801821</v>
+        <v>135.4862920449946</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.6908728412607</v>
+        <v>122.5556704884617</v>
       </c>
       <c r="AD3" t="n">
-        <v>73276.0312599585</v>
+        <v>99022.01688494568</v>
       </c>
       <c r="AE3" t="n">
-        <v>100259.4986801821</v>
+        <v>135486.2920449946</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.551367261043829e-06</v>
+        <v>8.031565527680856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90690.8728412607</v>
+        <v>122555.6704884618</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.26827789007058</v>
+        <v>93.55570558966706</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.77591370990412</v>
+        <v>128.0070437741637</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.73063352428447</v>
+        <v>115.7902311754058</v>
       </c>
       <c r="AD2" t="n">
-        <v>69268.27789007057</v>
+        <v>93555.70558966705</v>
       </c>
       <c r="AE2" t="n">
-        <v>94775.91370990411</v>
+        <v>128007.0437741638</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.656090349923248e-06</v>
+        <v>8.493663854070516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.862268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>85730.63352428447</v>
+        <v>115790.2311754058</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.59308169614296</v>
+        <v>100.0824063263634</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.7980334249047</v>
+        <v>136.9371636598221</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.7962561998219</v>
+        <v>123.8680729526817</v>
       </c>
       <c r="AD2" t="n">
-        <v>76593.08169614297</v>
+        <v>100082.4063263634</v>
       </c>
       <c r="AE2" t="n">
-        <v>104798.0334249047</v>
+        <v>136937.1636598221</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.491350318824897e-06</v>
+        <v>8.422340698468318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>94796.2561998219</v>
+        <v>123868.0729526817</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.924202685625</v>
+        <v>107.5119021914186</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.2510877707408</v>
+        <v>147.1025276686105</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.20607167475738</v>
+        <v>133.0632688876526</v>
       </c>
       <c r="AD2" t="n">
-        <v>76924.202685625</v>
+        <v>107511.9021914186</v>
       </c>
       <c r="AE2" t="n">
-        <v>105251.0877707408</v>
+        <v>147102.5276686105</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201348404471661e-06</v>
+        <v>8.127004283488336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.863425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>95206.07167475738</v>
+        <v>133063.2688876525</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2190103245868</v>
+        <v>141.5071989198176</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9652918611629</v>
+        <v>193.6163924190261</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.2254464625285</v>
+        <v>175.1379156689225</v>
       </c>
       <c r="AD2" t="n">
-        <v>105219.0103245868</v>
+        <v>141507.1989198176</v>
       </c>
       <c r="AE2" t="n">
-        <v>143965.2918611628</v>
+        <v>193616.3924190261</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086013744999412e-06</v>
+        <v>6.658879079726215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.380787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>130225.4464625285</v>
+        <v>175137.9156689225</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.5478819174479</v>
+        <v>95.43946883511116</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.52672439230638</v>
+        <v>130.5844917523482</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.31434929243706</v>
+        <v>118.121691136024</v>
       </c>
       <c r="AD2" t="n">
-        <v>70547.8819174479</v>
+        <v>95439.46883511115</v>
       </c>
       <c r="AE2" t="n">
-        <v>96526.72439230638</v>
+        <v>130584.4917523482</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665551340974259e-06</v>
+        <v>8.370176799585789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.659722222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>87314.34929243705</v>
+        <v>118121.691136024</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.77802638504025</v>
+        <v>98.36497490715983</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.5781064398948</v>
+        <v>134.5872982243422</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.0745117200462</v>
+        <v>121.7424753763063</v>
       </c>
       <c r="AD2" t="n">
-        <v>72778.02638504026</v>
+        <v>98364.97490715983</v>
       </c>
       <c r="AE2" t="n">
-        <v>99578.10643989479</v>
+        <v>134587.2982243422</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560124141834413e-06</v>
+        <v>8.074240001821686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>90074.5117200462</v>
+        <v>121742.4753763063</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.6056324229433</v>
+        <v>98.19258094506289</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.34222941546903</v>
+        <v>134.3514211999164</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.86114646777607</v>
+        <v>121.5291101240362</v>
       </c>
       <c r="AD3" t="n">
-        <v>72605.63242294331</v>
+        <v>98192.58094506289</v>
       </c>
       <c r="AE3" t="n">
-        <v>99342.22941546903</v>
+        <v>134351.4211999164</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.593112090834583e-06</v>
+        <v>8.122144079248877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89861.14646777607</v>
+        <v>121529.1101240362</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.9512907117179</v>
+        <v>177.5600231872634</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.646309582451</v>
+        <v>242.9454571200728</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.0239249486769</v>
+        <v>219.7590836686941</v>
       </c>
       <c r="AD2" t="n">
-        <v>134951.2907117179</v>
+        <v>177560.0231872634</v>
       </c>
       <c r="AE2" t="n">
-        <v>184646.309582451</v>
+        <v>242945.4571200728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243884610833789e-06</v>
+        <v>5.407362378723108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>167023.9249486769</v>
+        <v>219759.0836686941</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.80919181814791</v>
+        <v>100.5515633995747</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0937248279374</v>
+        <v>137.5790850651387</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.06372723035477</v>
+        <v>124.4487302800174</v>
       </c>
       <c r="AD2" t="n">
-        <v>76809.19181814791</v>
+        <v>100551.5633995747</v>
       </c>
       <c r="AE2" t="n">
-        <v>105093.7248279373</v>
+        <v>137579.0850651387</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.563099741408958e-06</v>
+        <v>8.466518333749362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.116898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>95063.72723035477</v>
+        <v>124448.7302800174</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.69955071807455</v>
+        <v>94.19821417716777</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.3660002195932</v>
+        <v>128.8861523690602</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.26440300568063</v>
+        <v>116.5854388798422</v>
       </c>
       <c r="AD2" t="n">
-        <v>69699.55071807455</v>
+        <v>94198.21417716777</v>
       </c>
       <c r="AE2" t="n">
-        <v>95366.0002195932</v>
+        <v>128886.1523690602</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.658430657837117e-06</v>
+        <v>8.447531640463309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>86264.40300568064</v>
+        <v>116585.4388798422</v>
       </c>
     </row>
   </sheetData>
